--- a/assets/projects/Various VaR Methods_CRSP.xlsx
+++ b/assets/projects/Various VaR Methods_CRSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhili/norbitay.github.io/assets/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52C60DF8-7777-A04E-A83E-2A7DAB6960C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{078F85B7-1806-4F42-AB2E-83AB61CCBE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36380" yWindow="1720" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="840" windowWidth="31500" windowHeight="26040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats Summary" sheetId="2" r:id="rId1"/>
@@ -2294,7 +2294,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9080BD-9596-884C-99B4-BFE8B85586AE}">
   <dimension ref="B1:O506"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -2728,7 +2728,7 @@
         <v>-769.39398077797591</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="d">
         <v>2022-02-23</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="d">
         <v>2022-02-24</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="d">
         <v>2022-02-25</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="d">
         <v>2022-02-28</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="d">
         <v>2022-03-01</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>665.51778524931854</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="d">
         <v>2022-03-02</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>781.16718958387753</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="d">
         <v>2022-03-03</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1083.8415239810688</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="d">
         <v>2022-03-04</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1746.742937702016</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="d">
         <v>2022-03-07</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>3427.407838448185</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="d">
         <v>2022-03-08</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="d">
         <v>2022-03-09</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="d">
         <v>2022-03-10</v>
       </c>
@@ -3166,8 +3166,9 @@
       <c r="L28" s="36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="55"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="d">
         <v>2022-03-11</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>49.999999999999986</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="d">
         <v>2022-03-14</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>25.000000000000021</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="d">
         <v>2022-03-15</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="d">
         <v>2022-03-16</v>
       </c>
@@ -13528,7 +13529,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8999AB-FE61-8B48-B49C-A79D47AA9401}">
   <dimension ref="B1:Q506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
